--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Itgb6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fn1-Itgb6.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H2">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J2">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.111678</v>
+        <v>0.2577576666666667</v>
       </c>
       <c r="N2">
-        <v>0.335034</v>
+        <v>0.7732730000000001</v>
       </c>
       <c r="O2">
-        <v>0.01499007198665366</v>
+        <v>0.03524815007985697</v>
       </c>
       <c r="P2">
-        <v>0.01499007198665366</v>
+        <v>0.03524815007985697</v>
       </c>
       <c r="Q2">
-        <v>4.551257237324</v>
+        <v>9.211962929026891</v>
       </c>
       <c r="R2">
-        <v>40.961315135916</v>
+        <v>82.90766636124201</v>
       </c>
       <c r="S2">
-        <v>0.0003187693718374693</v>
+        <v>0.0006872435482077819</v>
       </c>
       <c r="T2">
-        <v>0.0003187693718374693</v>
+        <v>0.0006872435482077818</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H3">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J3">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>6.728126</v>
       </c>
       <c r="O3">
-        <v>0.3010294270888212</v>
+        <v>0.3066885757089511</v>
       </c>
       <c r="P3">
-        <v>0.3010294270888212</v>
+        <v>0.3066885757089511</v>
       </c>
       <c r="Q3">
-        <v>91.39798393932489</v>
+        <v>80.15183162197823</v>
       </c>
       <c r="R3">
-        <v>822.581855453924</v>
+        <v>721.3664845978039</v>
       </c>
       <c r="S3">
-        <v>0.006401501037695713</v>
+        <v>0.005979597354400102</v>
       </c>
       <c r="T3">
-        <v>0.006401501037695712</v>
+        <v>0.005979597354400101</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H4">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J4">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.075634</v>
+        <v>4.789377333333333</v>
       </c>
       <c r="N4">
-        <v>15.226902</v>
+        <v>14.368132</v>
       </c>
       <c r="O4">
-        <v>0.6812811747873964</v>
+        <v>0.6549434327891901</v>
       </c>
       <c r="P4">
-        <v>0.6812811747873964</v>
+        <v>0.6549434327891902</v>
       </c>
       <c r="Q4">
-        <v>206.849298666772</v>
+        <v>171.1668444952365</v>
       </c>
       <c r="R4">
-        <v>1861.643688000948</v>
+        <v>1540.501600457128</v>
       </c>
       <c r="S4">
-        <v>0.01448769374323414</v>
+        <v>0.01276962472089129</v>
       </c>
       <c r="T4">
-        <v>0.01448769374323414</v>
+        <v>0.01276962472089129</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.75339133333333</v>
+        <v>35.73885133333334</v>
       </c>
       <c r="H5">
-        <v>122.260174</v>
+        <v>107.216554</v>
       </c>
       <c r="I5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="J5">
-        <v>0.02126536631186856</v>
+        <v>0.01949729408921566</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.02011033333333333</v>
+        <v>0.02281433333333334</v>
       </c>
       <c r="N5">
-        <v>0.060331</v>
+        <v>0.068443</v>
       </c>
       <c r="O5">
-        <v>0.002699326137128774</v>
+        <v>0.003119841422001868</v>
       </c>
       <c r="P5">
-        <v>0.002699326137128774</v>
+        <v>0.003119841422001868</v>
       </c>
       <c r="Q5">
-        <v>0.819564284177111</v>
+        <v>0.8153580672691113</v>
       </c>
       <c r="R5">
-        <v>7.376078557594</v>
+        <v>7.338222605422001</v>
       </c>
       <c r="S5">
-        <v>5.740215910124454E-05</v>
+        <v>6.08284657164872E-05</v>
       </c>
       <c r="T5">
-        <v>5.740215910124454E-05</v>
+        <v>6.08284657164872E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,43 +788,43 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H6">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I6">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J6">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.111678</v>
+        <v>0.2577576666666667</v>
       </c>
       <c r="N6">
-        <v>0.335034</v>
+        <v>0.7732730000000001</v>
       </c>
       <c r="O6">
-        <v>0.01499007198665366</v>
+        <v>0.03524815007985697</v>
       </c>
       <c r="P6">
-        <v>0.01499007198665366</v>
+        <v>0.03524815007985697</v>
       </c>
       <c r="Q6">
-        <v>188.65645118992</v>
+        <v>435.4272700113512</v>
       </c>
       <c r="R6">
-        <v>1697.90806070928</v>
+        <v>3918.84543010216</v>
       </c>
       <c r="S6">
-        <v>0.01321346944438066</v>
+        <v>0.03248434501251729</v>
       </c>
       <c r="T6">
-        <v>0.01321346944438066</v>
+        <v>0.03248434501251729</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H7">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I7">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J7">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>6.728126</v>
       </c>
       <c r="O7">
-        <v>0.3010294270888212</v>
+        <v>0.3066885757089511</v>
       </c>
       <c r="P7">
-        <v>0.3010294270888212</v>
+        <v>0.3066885757089511</v>
       </c>
       <c r="Q7">
-        <v>3788.583768568658</v>
+        <v>3788.583768568657</v>
       </c>
       <c r="R7">
         <v>34097.25391711792</v>
       </c>
       <c r="S7">
-        <v>0.2653518368850417</v>
+        <v>0.2826411451992865</v>
       </c>
       <c r="T7">
-        <v>0.2653518368850417</v>
+        <v>0.2826411451992865</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H8">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I8">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J8">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.075634</v>
+        <v>4.789377333333333</v>
       </c>
       <c r="N8">
-        <v>15.226902</v>
+        <v>14.368132</v>
       </c>
       <c r="O8">
-        <v>0.6812811747873964</v>
+        <v>0.6549434327891901</v>
       </c>
       <c r="P8">
-        <v>0.6812811747873964</v>
+        <v>0.6549434327891902</v>
       </c>
       <c r="Q8">
-        <v>8574.214240753761</v>
+        <v>8090.643914791715</v>
       </c>
       <c r="R8">
-        <v>77167.92816678385</v>
+        <v>72815.79523312543</v>
       </c>
       <c r="S8">
-        <v>0.600536674813836</v>
+        <v>0.603589362454644</v>
       </c>
       <c r="T8">
-        <v>0.600536674813836</v>
+        <v>0.6035893624546441</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,13 +974,13 @@
         <v>1689.289306666667</v>
       </c>
       <c r="H9">
-        <v>5067.867920000001</v>
+        <v>5067.86792</v>
       </c>
       <c r="I9">
-        <v>0.8814813868902839</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="J9">
-        <v>0.8814813868902838</v>
+        <v>0.9215900675332435</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02011033333333333</v>
+        <v>0.02281433333333334</v>
       </c>
       <c r="N9">
-        <v>0.060331</v>
+        <v>0.068443</v>
       </c>
       <c r="O9">
-        <v>0.002699326137128774</v>
+        <v>0.003119841422001868</v>
       </c>
       <c r="P9">
-        <v>0.002699326137128774</v>
+        <v>0.003119841422001868</v>
       </c>
       <c r="Q9">
-        <v>33.97217105350222</v>
+        <v>38.54000933872889</v>
       </c>
       <c r="R9">
-        <v>305.74953948152</v>
+        <v>346.86008404856</v>
       </c>
       <c r="S9">
-        <v>0.002379405747025464</v>
+        <v>0.002875214866795712</v>
       </c>
       <c r="T9">
-        <v>0.002379405747025464</v>
+        <v>0.002875214866795712</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H10">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I10">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J10">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.111678</v>
+        <v>0.2577576666666667</v>
       </c>
       <c r="N10">
-        <v>0.335034</v>
+        <v>0.7732730000000001</v>
       </c>
       <c r="O10">
-        <v>0.01499007198665366</v>
+        <v>0.03524815007985697</v>
       </c>
       <c r="P10">
-        <v>0.01499007198665366</v>
+        <v>0.03524815007985697</v>
       </c>
       <c r="Q10">
-        <v>9.538724796692001</v>
+        <v>24.13682820432301</v>
       </c>
       <c r="R10">
-        <v>85.84852317022801</v>
+        <v>217.231453838907</v>
       </c>
       <c r="S10">
-        <v>0.0006680908489716159</v>
+        <v>0.001800688906959472</v>
       </c>
       <c r="T10">
-        <v>0.0006680908489716158</v>
+        <v>0.001800688906959472</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H11">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I11">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J11">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>6.728126</v>
       </c>
       <c r="O11">
-        <v>0.3010294270888212</v>
+        <v>0.3066885757089511</v>
       </c>
       <c r="P11">
-        <v>0.3010294270888212</v>
+        <v>0.3066885757089511</v>
       </c>
       <c r="Q11">
-        <v>191.5559086882769</v>
+        <v>210.010722473226</v>
       </c>
       <c r="R11">
-        <v>1724.003178194492</v>
+        <v>1890.096502259034</v>
       </c>
       <c r="S11">
-        <v>0.01341654701113321</v>
+        <v>0.01566750921450199</v>
       </c>
       <c r="T11">
-        <v>0.0134165470111332</v>
+        <v>0.01566750921450199</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H12">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I12">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J12">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.075634</v>
+        <v>4.789377333333333</v>
       </c>
       <c r="N12">
-        <v>15.226902</v>
+        <v>14.368132</v>
       </c>
       <c r="O12">
-        <v>0.6812811747873964</v>
+        <v>0.6549434327891901</v>
       </c>
       <c r="P12">
-        <v>0.6812811747873964</v>
+        <v>0.6549434327891902</v>
       </c>
       <c r="Q12">
-        <v>433.5238443984761</v>
+        <v>448.484731396332</v>
       </c>
       <c r="R12">
-        <v>3901.714599586284</v>
+        <v>4036.362582566988</v>
       </c>
       <c r="S12">
-        <v>0.03036394480675871</v>
+        <v>0.03345847573383449</v>
       </c>
       <c r="T12">
-        <v>0.0303639448067587</v>
+        <v>0.0334584757338345</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>85.41274733333334</v>
+        <v>93.641553</v>
       </c>
       <c r="H13">
-        <v>256.238242</v>
+        <v>280.924659</v>
       </c>
       <c r="I13">
-        <v>0.04456888863285297</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="J13">
-        <v>0.04456888863285296</v>
+        <v>0.05108605424341119</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.02011033333333333</v>
+        <v>0.02281433333333334</v>
       </c>
       <c r="N13">
-        <v>0.060331</v>
+        <v>0.068443</v>
       </c>
       <c r="O13">
-        <v>0.002699326137128774</v>
+        <v>0.003119841422001868</v>
       </c>
       <c r="P13">
-        <v>0.002699326137128774</v>
+        <v>0.003119841422001868</v>
       </c>
       <c r="Q13">
-        <v>1.717678819789111</v>
+        <v>2.136369603993</v>
       </c>
       <c r="R13">
-        <v>15.459109378102</v>
+        <v>19.227326435937</v>
       </c>
       <c r="S13">
-        <v>0.0001203059659894415</v>
+        <v>0.0001593803881152285</v>
       </c>
       <c r="T13">
-        <v>0.0001203059659894415</v>
+        <v>0.0001593803881152285</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H14">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J14">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.111678</v>
+        <v>0.2577576666666667</v>
       </c>
       <c r="N14">
-        <v>0.335034</v>
+        <v>0.7732730000000001</v>
       </c>
       <c r="O14">
-        <v>0.01499007198665366</v>
+        <v>0.03524815007985697</v>
       </c>
       <c r="P14">
-        <v>0.01499007198665366</v>
+        <v>0.03524815007985697</v>
       </c>
       <c r="Q14">
-        <v>11.275614201782</v>
+        <v>3.697856870528112</v>
       </c>
       <c r="R14">
-        <v>101.480527816038</v>
+        <v>33.28071183475301</v>
       </c>
       <c r="S14">
-        <v>0.000789742321463914</v>
+        <v>0.0002758726121724328</v>
       </c>
       <c r="T14">
-        <v>0.000789742321463914</v>
+        <v>0.0002758726121724328</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H15">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J15">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>6.728126</v>
       </c>
       <c r="O15">
-        <v>0.3010294270888212</v>
+        <v>0.3066885757089511</v>
       </c>
       <c r="P15">
-        <v>0.3010294270888212</v>
+        <v>0.3066885757089511</v>
       </c>
       <c r="Q15">
-        <v>226.4359828464535</v>
+        <v>32.17446743243178</v>
       </c>
       <c r="R15">
-        <v>2037.923845618081</v>
+        <v>289.570206891886</v>
       </c>
       <c r="S15">
-        <v>0.0158595421549506</v>
+        <v>0.002400323940762527</v>
       </c>
       <c r="T15">
-        <v>0.01585954215495059</v>
+        <v>0.002400323940762527</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H16">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J16">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.075634</v>
+        <v>4.789377333333333</v>
       </c>
       <c r="N16">
-        <v>15.226902</v>
+        <v>14.368132</v>
       </c>
       <c r="O16">
-        <v>0.6812811747873964</v>
+        <v>0.6549434327891901</v>
       </c>
       <c r="P16">
-        <v>0.6812811747873964</v>
+        <v>0.6549434327891902</v>
       </c>
       <c r="Q16">
-        <v>512.4634289067459</v>
+        <v>68.70962212938356</v>
       </c>
       <c r="R16">
-        <v>4612.170860160713</v>
+        <v>618.386599164452</v>
       </c>
       <c r="S16">
-        <v>0.03589286142356751</v>
+        <v>0.005125969879820349</v>
       </c>
       <c r="T16">
-        <v>0.03589286142356751</v>
+        <v>0.00512596987982035</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>100.9654023333333</v>
+        <v>14.34625366666667</v>
       </c>
       <c r="H17">
-        <v>302.8962069999999</v>
+        <v>43.038761</v>
       </c>
       <c r="I17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="J17">
-        <v>0.05268435816499464</v>
+        <v>0.007826584134129748</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.02011033333333333</v>
+        <v>0.02281433333333334</v>
       </c>
       <c r="N17">
-        <v>0.060331</v>
+        <v>0.068443</v>
       </c>
       <c r="O17">
-        <v>0.002699326137128774</v>
+        <v>0.003119841422001868</v>
       </c>
       <c r="P17">
-        <v>0.002699326137128774</v>
+        <v>0.003119841422001868</v>
       </c>
       <c r="Q17">
-        <v>2.030447896057444</v>
+        <v>0.3273002132358889</v>
       </c>
       <c r="R17">
-        <v>18.274031064517</v>
+        <v>2.945701919123</v>
       </c>
       <c r="S17">
-        <v>0.0001422122650126238</v>
+        <v>2.441770137444061E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001422122650126238</v>
+        <v>2.441770137444062E-05</v>
       </c>
     </row>
   </sheetData>
